--- a/test-import.xlsx
+++ b/test-import.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\IdeaProjects\excel-import-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E174CE8-3E1C-4627-A8ED-5644378BA72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35551AE-287A-41A6-94DD-4AB97378F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 样例1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 样例2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 样例3" sheetId="3" r:id="rId3"/>
-    <sheet name="base-info" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet 样例2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 样例3" sheetId="2" r:id="rId2"/>
+    <sheet name="base-info" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -426,11 +425,25 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
+          <t>parentId</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>hiddenField</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -514,7 +527,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>parentId</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -584,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -598,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -612,311 +639,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>hiddenField</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>X</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>price</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>email</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>birthDate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>idCard</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>hiddenField</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>price</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>email</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>birthDate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>idCard</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>hiddenField</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>price</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>email</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>birthDate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>idCard</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>parentId</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -935,7 +672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
   <si>
     <t>组1</t>
   </si>
@@ -955,10 +692,13 @@
     <t>子组2</t>
   </si>
   <si>
-    <t>三级组1</t>
+    <t>三级组2</t>
   </si>
   <si>
-    <t>三级组2</t>
+    <t>主表ID</t>
+  </si>
+  <si>
+    <t>三级组1</t>
   </si>
   <si>
     <t>org.example.test.vo.MainVo</t>
@@ -968,108 +708,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1226,146 +871,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1685,251 +1276,84 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1942,8 +1366,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="46">
-        <v>37206</v>
+      <c r="E4" s="27">
+        <v>36526</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1952,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1965,8 +1389,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="46">
-        <v>37206</v>
+      <c r="E5" s="27">
+        <v>36526</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1975,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1988,8 +1412,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="46">
-        <v>37206</v>
+      <c r="E6" s="27">
+        <v>36526</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2008,181 +1432,200 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>44562</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28">
+        <v>44562</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44562</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="46">
-        <v>37206</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="45" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2194,11 +1637,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="45" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>